--- a/Schedules/Schedules.xlsx
+++ b/Schedules/Schedules.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishare/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishare/ishare/project/github/Doc/Schedules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CAF65019-1450-6047-9C3B-00CB585CF16E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{041403EB-6539-4E4C-B589-50AE842A4E6A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="920" windowWidth="31800" windowHeight="18520" activeTab="3" xr2:uid="{A542B6EC-5939-F345-9B81-D8275B2B5D64}"/>
+    <workbookView xWindow="680" yWindow="920" windowWidth="31800" windowHeight="18520" activeTab="2" xr2:uid="{A542B6EC-5939-F345-9B81-D8275B2B5D64}"/>
   </bookViews>
   <sheets>
     <sheet name="日常锻炼任务（6.19-7.18）" sheetId="1" r:id="rId1"/>
     <sheet name="日常锻炼任务（7.19-8.17）" sheetId="3" r:id="rId2"/>
-    <sheet name="日常扩展学习任务" sheetId="2" r:id="rId3"/>
-    <sheet name="后台技术栈" sheetId="5" r:id="rId4"/>
-    <sheet name="前端技术栈" sheetId="6" r:id="rId5"/>
+    <sheet name="扩展学习任务" sheetId="2" r:id="rId3"/>
+    <sheet name="Server技术栈-基础篇" sheetId="5" r:id="rId4"/>
+    <sheet name="Web技术栈-基础篇" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="41">
   <si>
     <t>跑步3公里</t>
     <rPh sb="0" eb="2">
@@ -39,7 +39,7 @@
   </si>
   <si>
     <t>俯卧撑20个</t>
-    <rPh sb="0" eb="52">
+    <rPh sb="0" eb="6">
       <t>yang wo qi zuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,7 +134,7 @@
   </si>
   <si>
     <t>俯卧撑30个</t>
-    <rPh sb="0" eb="52">
+    <rPh sb="0" eb="6">
       <t>yang wo qi zuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,153 @@
     <t>柔韧性练习20分钟</t>
     <rPh sb="0" eb="3">
       <t>rou ren xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解一切都是对象</t>
+    <rPh sb="0" eb="2">
+      <t>li jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作符</t>
+    <rPh sb="0" eb="2">
+      <t>cao zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制执行流程</t>
+    <rPh sb="0" eb="2">
+      <t>kong zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化与清理</t>
+    <rPh sb="0" eb="3">
+      <t>chu shi hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度</t>
+    <rPh sb="0" eb="2">
+      <t>wan c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问权限控制</t>
+    <rPh sb="0" eb="2">
+      <t>fang wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用类</t>
+    <rPh sb="0" eb="68">
+      <t>fu yong lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多态</t>
+    <rPh sb="0" eb="1">
+      <t>lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <rPh sb="0" eb="1">
+      <t>tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部类</t>
+    <rPh sb="0" eb="3">
+      <t>nei bu lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有对象</t>
+    <rPh sb="0" eb="2">
+      <t>chi you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常处理</t>
+    <rPh sb="0" eb="106">
+      <t>yi chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <rPh sb="0" eb="3">
+      <t>zi fu chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型信息</t>
+    <rPh sb="0" eb="2">
+      <t>lei xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型</t>
+    <rPh sb="0" eb="293">
+      <t>fan xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <rPh sb="0" eb="2">
+      <t>shu zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器</t>
+    <rPh sb="0" eb="2">
+      <t>rong qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O系统</t>
+    <rPh sb="0" eb="2">
+      <t>xi tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举</t>
+    <rPh sb="0" eb="2">
+      <t>mei ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解</t>
+    <rPh sb="0" eb="52">
+      <t>zhu jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发</t>
+    <rPh sb="0" eb="57">
+      <t>bing fa</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,7 +373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,6 +390,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BD0E55-3740-7548-A035-6F3003E7C286}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -582,7 +738,7 @@
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25" customHeight="1">
+    <row r="1" spans="1:9" ht="25" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -605,8 +761,11 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="19" customHeight="1">
+      <c r="I1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19" customHeight="1">
       <c r="A2" s="4">
         <v>43270</v>
       </c>
@@ -631,8 +790,11 @@
       <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>43271</v>
       </c>
@@ -657,8 +819,11 @@
       <c r="H3" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="4">
         <v>43272</v>
       </c>
@@ -683,8 +848,11 @@
       <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="4">
         <v>43273</v>
       </c>
@@ -709,8 +877,11 @@
       <c r="H5" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="4">
         <v>43274</v>
       </c>
@@ -735,8 +906,11 @@
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="4">
         <v>43275</v>
       </c>
@@ -761,8 +935,11 @@
       <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="4">
         <v>43276</v>
       </c>
@@ -787,8 +964,11 @@
       <c r="H8" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="4">
         <v>43277</v>
       </c>
@@ -813,8 +993,11 @@
       <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="4">
         <v>43278</v>
       </c>
@@ -839,8 +1022,11 @@
       <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="4">
         <v>43279</v>
       </c>
@@ -851,8 +1037,9 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="4">
         <v>43280</v>
       </c>
@@ -863,8 +1050,9 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="4">
         <v>43281</v>
       </c>
@@ -875,8 +1063,9 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="4">
         <v>43282</v>
       </c>
@@ -887,8 +1076,9 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="4">
         <v>43283</v>
       </c>
@@ -899,8 +1089,9 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="4">
         <v>43284</v>
       </c>
@@ -911,8 +1102,9 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="4">
         <v>43285</v>
       </c>
@@ -923,8 +1115,9 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="4">
         <v>43286</v>
       </c>
@@ -935,8 +1128,9 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>43287</v>
       </c>
@@ -947,8 +1141,9 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="4">
         <v>43288</v>
       </c>
@@ -959,8 +1154,9 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="4">
         <v>43289</v>
       </c>
@@ -971,8 +1167,9 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="4">
         <v>43290</v>
       </c>
@@ -983,8 +1180,9 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>43291</v>
       </c>
@@ -995,8 +1193,9 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="4">
         <v>43292</v>
       </c>
@@ -1007,8 +1206,9 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="4">
         <v>43293</v>
       </c>
@@ -1019,8 +1219,9 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="4">
         <v>43294</v>
       </c>
@@ -1031,8 +1232,9 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="4">
         <v>43295</v>
       </c>
@@ -1043,8 +1245,9 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="4">
         <v>43296</v>
       </c>
@@ -1055,8 +1258,9 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="4">
         <v>43297</v>
       </c>
@@ -1067,8 +1271,9 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="4">
         <v>43298</v>
       </c>
@@ -1079,8 +1284,9 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="4">
         <v>43299</v>
       </c>
@@ -1091,6 +1297,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1512,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCCB542-B850-EF45-9F3A-8BF08EE4E4BB}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1909,14 +2116,204 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09CE953-4EB9-1746-9C48-A42C32599D81}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="30" customHeight="1">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="24" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" ht="30" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" ht="30" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" ht="29" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1927,7 +2324,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
